--- a/docs/hw_testovanie_data.xlsx
+++ b/docs/hw_testovanie_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrej\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panis\Documents\GitHub\semestralne-zadania-semestralne-zadanie-xmastilak-xpanis-xvaculciak\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{915CB3F8-78EE-4AE7-9EED-767B98A606E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>scenár 1</t>
   </si>
@@ -40,11 +40,14 @@
   <si>
     <t>loss %</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,15 +74,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -95,6 +248,5689 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S1: Jitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AA5-4A51-AEEB-9B9429CCF45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="607074336"/>
+        <c:axId val="605734976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6AA5-4A51-AEEB-9B9429CCF45A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="607074336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605734976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605734976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607074336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S1: Percentuálna stratovosť paketov</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F1C-4FD2-83F7-819D5BAC2865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="673335248"/>
+        <c:axId val="605723744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4F1C-4FD2-83F7-819D5BAC2865}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673335248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605723744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605723744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673335248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S2: Jitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8360000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AF8-4436-9B4E-2D94D9E11FC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="676518672"/>
+        <c:axId val="678005984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5AF8-4436-9B4E-2D94D9E11FC9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="676518672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678005984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678005984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676518672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S2: Percentuálna stratovosť paketov</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-872B-4D9B-99FC-68A7E9946DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="673336912"/>
+        <c:axId val="678004688"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-872B-4D9B-99FC-68A7E9946DA4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673336912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678004688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678004688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673336912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S3: Jitter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0540000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CAD-4732-B8AE-E36F1EB92DCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="676519504"/>
+        <c:axId val="672353536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7CAD-4732-B8AE-E36F1EB92DCB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="676519504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672353536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672353536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676519504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>S3:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sk-SK" baseline="0"/>
+              <a:t> Percentuálna stratovosť paketov</a:t>
+            </a:r>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hárok1!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F8F-4FE0-8169-5CCF5B2D0051}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="614812816"/>
+        <c:axId val="678006848"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hárok1!$A$3:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3F8F-4FE0-8169-5CCF5B2D0051}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614812816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678006848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678006848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614812816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6EF313-100F-40CB-9B08-2E078842BCF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A4FBD2-83E5-4914-B544-F613891D982E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C25CCF8-52DB-4A05-8B1C-F15C4C8D9AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graf 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD10FA3-831E-4205-965D-3849D2969AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graf 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFC4DAB-5C46-4718-95DD-839364958A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graf 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B444DE0-6890-4368-AAD0-57431CC3414E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,278 +6229,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C368B1A-41A8-4D7D-84A3-07D089144759}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4.2949999999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>20.95</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>55</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>3.8759999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4.1509999999999998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6.3609999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>54</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3.9169999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3.9580000000000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>21.282</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>56</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3.6779999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3.706</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>21.231000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>56</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3.8860000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3.625</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5.5469999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>54</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>3.8769999999999998</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.766</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>20.056000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>55</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>4.22</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>4.0839999999999996</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>6.5039999999999996</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>3.9249999999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3.9420000000000002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>20.292999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>54</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>3.9380000000000002</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>4.2569999999999997</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>6.4630000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>56</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3.8250000000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3.7919999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>5.8360000000000003</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>58</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>4.0540000000000003</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <f>AVERAGE(B3:B12)</f>
+        <v>3.9576000000000002</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:G13" si="0">AVERAGE(C3:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>13.452300000000003</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>55.3</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9196</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -677,5 +6542,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>